--- a/13_APC/02 内核apc执行过程.xlsx
+++ b/13_APC/02 内核apc执行过程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\13_APC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB84058-8CBB-44EA-BEF9-56D34E203CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2388503-0168-4195-867C-B3B6B61AF2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>apc链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,14 @@
   </si>
   <si>
     <t>内核apc执行过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个处理内核apc，第二个处理用户apc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有该标志位有效，Alerted才会生效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3644,7 +3652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3793,7 +3803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6670FD39-9129-47FE-9821-7AB21ABB1B1D}">
   <dimension ref="B2:R66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3801,10 +3813,16 @@
       <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
